--- a/data/transportation.xlsx
+++ b/data/transportation.xlsx
@@ -1,71 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmc\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\___CANADA\_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274AD0DF-84CF-4E05-A197-572E462B36F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11442" yWindow="0" windowWidth="11676" windowHeight="13758" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="11442" yWindow="0" windowWidth="11676" windowHeight="13758" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>% Change vs Last Year</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,31 +52,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,621 +423,663 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.578125" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.41796875" style="1" customWidth="1"/>
+    <col width="12.578125" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" style="1" min="2" max="2"/>
+    <col width="14.41796875" customWidth="1" style="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>% Change vs Last Year</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-12-31</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>117.94</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
         <v>45565</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B3" s="3" t="n">
         <v>124.96</v>
       </c>
-      <c r="C2">
-        <f>(B2/B6-1)*100</f>
-        <v>2.9918404351767958</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2">
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="3" t="n">
         <v>124.26</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C47" si="0">(B3/B7-1)*100</f>
-        <v>2.8046661702655795</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4">
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
         <v>45382</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="3" t="n">
         <v>122.73</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>1.7577315313821451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2">
+      <c r="C5">
+        <f>(B5/B17-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45291</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="3" t="n">
         <v>121.89</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>3.0869418132611681</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4">
+      <c r="C6">
+        <f>(B6/B18-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
         <v>45199</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="3" t="n">
         <v>121.33</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>2.8569006442862088</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2">
+      <c r="C7">
+        <f>(B7/B19-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45107</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3" t="n">
         <v>120.87</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>3.149001536098317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="4">
+      <c r="C8">
+        <f>(B8/B20-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
         <v>45016</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B9" s="3" t="n">
         <v>120.61</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>6.2643171806167297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
+      <c r="C9">
+        <f>(B9/B21-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3" t="n">
         <v>118.24</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>5.1863713192776384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="4">
+      <c r="C10">
+        <f>(B10/B22-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
         <v>44834</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3" t="n">
         <v>117.96</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>8.120989917506872</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
+      <c r="C11">
+        <f>(B11/B23-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>44742</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3" t="n">
         <v>117.18</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>10.703826169107234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="4">
+      <c r="C12">
+        <f>(B12/B24-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
         <v>44651</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B13" s="3" t="n">
         <v>113.5</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>7.0855741107651804</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
+      <c r="C13">
+        <f>(B13/B25-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>44561</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3" t="n">
         <v>112.41</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>7.6311757947146619</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="4">
+      <c r="C14">
+        <f>(B14/B26-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n">
         <v>44469</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="3" t="n">
         <v>109.1</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>7.9984161552167921</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2">
+      <c r="C15">
+        <f>(B15/B27-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>44377</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="3" t="n">
         <v>105.85</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>18.83911530257101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="4">
+      <c r="C16">
+        <f>(B16/B28-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n">
         <v>44286</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3" t="n">
         <v>105.99</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>-2.2052039121609135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2">
+      <c r="C17">
+        <f>(B17/B29-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>44196</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3" t="n">
         <v>104.44</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>-8.8497119916215787</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="4">
+      <c r="C18">
+        <f>(B18/B30-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n">
         <v>44104</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="3" t="n">
         <v>101.02</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>-10.728172499116296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2">
+      <c r="C19">
+        <f>(B19/B31-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>44012</v>
       </c>
-      <c r="B19" s="3">
-        <v>89.07</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>-21.76548089591568</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="4">
+      <c r="B20" s="3" t="n">
+        <v>89.06999999999999</v>
+      </c>
+      <c r="C20">
+        <f>(B20/B32-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n">
         <v>43921</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3" t="n">
         <v>108.38</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>-4.4857671631268197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2">
+      <c r="C21">
+        <f>(B21/B33-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>43830</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3" t="n">
         <v>114.58</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>2.5416144621442704</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="4">
+      <c r="C22">
+        <f>(B22/B34-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
         <v>43738</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B23" s="3" t="n">
         <v>113.16</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>3.7498853947006472</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2">
+      <c r="C23">
+        <f>(B23/B35-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>43646</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B24" s="3" t="n">
         <v>113.85</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>7.1731149392826765</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="4">
+      <c r="C24">
+        <f>(B24/B36-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n">
         <v>43555</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="3" t="n">
         <v>113.47</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>8.8023779844663927</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2">
+      <c r="C25">
+        <f>(B25/B37-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>43465</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B26" s="3" t="n">
         <v>111.74</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>8.9402359364336483</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="4">
+      <c r="C26">
+        <f>(B26/B38-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n">
         <v>43373</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B27" s="3" t="n">
         <v>109.07</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>7.5534957104822054</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2">
+      <c r="C27">
+        <f>(B27/B39-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>43281</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B28" s="3" t="n">
         <v>106.23</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>-3.12784971730804</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="4">
+      <c r="C28">
+        <f>(B28/B40-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n">
         <v>43190</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B29" s="3" t="n">
         <v>104.29</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>-3.0852151287055096</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2">
+      <c r="C29">
+        <f>(B29/B41-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>43100</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B30" s="3" t="n">
         <v>102.57</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>-3.5724358371721499</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="4">
+      <c r="C30">
+        <f>(B30/B42-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="n">
         <v>43008</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3" t="n">
         <v>101.41</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>-4.3121343649745292</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2">
+      <c r="C31">
+        <f>(B31/B43-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>42916</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B32" s="3" t="n">
         <v>109.66</v>
       </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>3.9037331817320275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="4">
+      <c r="C32">
+        <f>(B32/B44-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="n">
         <v>42825</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B33" s="3" t="n">
         <v>107.61</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>2.0096691629538421</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2">
+      <c r="C33">
+        <f>(B33/B45-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>42735</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B34" s="3" t="n">
         <v>106.37</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>0.66243967067285414</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="4">
+      <c r="C34">
+        <f>(B34/B46-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n">
         <v>42643</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B35" s="3" t="n">
         <v>105.98</v>
       </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>0.8756900818579938</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2">
+      <c r="C35">
+        <f>(B35/B47-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>42551</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B36" s="3" t="n">
         <v>105.54</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>1.2859884836852187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="4">
+      <c r="C36">
+        <f>(B36/B48-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n">
         <v>42460</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B37" s="3" t="n">
         <v>105.49</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>3.3405172413793149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2">
+      <c r="C37">
+        <f>(B37/B49-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>42369</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B38" s="3" t="n">
         <v>105.67</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>4.4892712350440123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="4">
+      <c r="C38">
+        <f>(B38/B50-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n">
         <v>42277</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B39" s="3" t="n">
         <v>105.06</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>3.1516936671575957</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2">
+      <c r="C39">
+        <f>(B39/B51-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>42185</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B40" s="3" t="n">
         <v>104.2</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>0.86148485141805953</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="4">
+      <c r="C40">
+        <f>(B40/B52-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n">
         <v>42094</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B41" s="3" t="n">
         <v>102.08</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>-1.2670471032014685</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2">
+      <c r="C41">
+        <f>(B41/B53-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>42004</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B42" s="3" t="n">
         <v>101.13</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
-        <v>-0.64839375184203574</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="4">
+      <c r="C42">
+        <f>(B42/B54-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n">
         <v>41912</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B43" s="3" t="n">
         <v>101.85</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
-        <v>2.5369978858351017</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2">
+      <c r="C43">
+        <f>(B43/B55-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>41820</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B44" s="3" t="n">
         <v>103.31</v>
       </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>3.6728549924736509</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="4">
+      <c r="C44">
+        <f>(B44/B56-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n">
         <v>41729</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B45" s="3" t="n">
         <v>103.39</v>
       </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>2.783576896311768</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2">
+      <c r="C45">
+        <f>(B45/B57-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>41639</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B46" s="3" t="n">
         <v>101.79</v>
       </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>0.81212241259780438</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="4">
+      <c r="C46">
+        <f>(B46/B58-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n">
         <v>41547</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B47" s="3" t="n">
         <v>99.33</v>
       </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>-1.0854411471818426</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2">
+      <c r="C47">
+        <f>(B47/B59-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>41455</v>
       </c>
-      <c r="B47" s="3">
-        <v>99.65</v>
-      </c>
-      <c r="C47">
-        <f>(B47/B51-1)*100</f>
-        <v>-5.3026703411574676</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="4">
+      <c r="B48" s="3" t="n">
+        <v>99.65000000000001</v>
+      </c>
+      <c r="C48">
+        <f>(B48/B60-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n">
         <v>41364</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B49" s="3" t="n">
         <v>100.59</v>
       </c>
-      <c r="C48"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2">
+      <c r="C49">
+        <f>(B49/B61-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>41274</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B50" s="3" t="n">
         <v>100.97</v>
       </c>
-      <c r="C49"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="4">
+      <c r="C50">
+        <f>(B50/B62-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n">
         <v>41182</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B51" s="3" t="n">
         <v>100.42</v>
       </c>
-      <c r="C50"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="2">
+      <c r="C51">
+        <f>(B51/B63-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B52" s="3" t="n">
         <v>105.23</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="3"/>
+      <c r="C52">
+        <f>(B52/B64-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" s="3" t="n"/>
+      <c r="C53">
+        <f>(B53/B65-1)*100</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/transportation.xlsx
+++ b/data/transportation.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,23 +461,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>120.12</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B14-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2024-12-31</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>117.94</v>
-      </c>
-      <c r="C2">
-        <f>(B2/B14-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
-        <v>45565</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>124.96</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -485,11 +487,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45473</v>
+      <c r="A4" s="4" t="n">
+        <v>45565</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>124.26</v>
+        <v>124.96</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -497,11 +499,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>45382</v>
+      <c r="A5" s="2" t="n">
+        <v>45473</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>122.73</v>
+        <v>124.26</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -509,11 +511,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45291</v>
+      <c r="A6" s="4" t="n">
+        <v>45382</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>121.89</v>
+        <v>122.73</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -521,11 +523,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>45199</v>
+      <c r="A7" s="2" t="n">
+        <v>45291</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>121.33</v>
+        <v>121.89</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -533,11 +535,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45107</v>
+      <c r="A8" s="4" t="n">
+        <v>45199</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>120.87</v>
+        <v>121.33</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -545,11 +547,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>45016</v>
+      <c r="A9" s="2" t="n">
+        <v>45107</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>120.61</v>
+        <v>120.87</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -557,11 +559,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>44926</v>
+      <c r="A10" s="4" t="n">
+        <v>45016</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>118.24</v>
+        <v>120.61</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -569,11 +571,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
-        <v>44834</v>
+      <c r="A11" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>117.96</v>
+        <v>118.24</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -581,11 +583,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>44742</v>
+      <c r="A12" s="4" t="n">
+        <v>44834</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>117.18</v>
+        <v>117.96</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -593,11 +595,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
-        <v>44651</v>
+      <c r="A13" s="2" t="n">
+        <v>44742</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>113.5</v>
+        <v>117.18</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -605,11 +607,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>44561</v>
+      <c r="A14" s="4" t="n">
+        <v>44651</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>112.41</v>
+        <v>113.5</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -617,11 +619,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
-        <v>44469</v>
+      <c r="A15" s="2" t="n">
+        <v>44561</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>109.1</v>
+        <v>112.41</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -629,11 +631,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>44377</v>
+      <c r="A16" s="4" t="n">
+        <v>44469</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>105.85</v>
+        <v>109.1</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -641,11 +643,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
-        <v>44286</v>
+      <c r="A17" s="2" t="n">
+        <v>44377</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>105.99</v>
+        <v>105.85</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -653,11 +655,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>44196</v>
+      <c r="A18" s="4" t="n">
+        <v>44286</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>104.44</v>
+        <v>105.99</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -665,11 +667,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
-        <v>44104</v>
+      <c r="A19" s="2" t="n">
+        <v>44196</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>101.02</v>
+        <v>104.44</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -677,11 +679,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>44012</v>
+      <c r="A20" s="4" t="n">
+        <v>44104</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>89.06999999999999</v>
+        <v>101.02</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -689,11 +691,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
-        <v>43921</v>
+      <c r="A21" s="2" t="n">
+        <v>44012</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>108.38</v>
+        <v>89.06999999999999</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -701,11 +703,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>43830</v>
+      <c r="A22" s="4" t="n">
+        <v>43921</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>114.58</v>
+        <v>108.38</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -713,11 +715,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
-        <v>43738</v>
+      <c r="A23" s="2" t="n">
+        <v>43830</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>113.16</v>
+        <v>114.58</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -725,11 +727,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>43646</v>
+      <c r="A24" s="4" t="n">
+        <v>43738</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>113.85</v>
+        <v>113.16</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -737,11 +739,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
-        <v>43555</v>
+      <c r="A25" s="2" t="n">
+        <v>43646</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>113.47</v>
+        <v>113.85</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -749,11 +751,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>43465</v>
+      <c r="A26" s="4" t="n">
+        <v>43555</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>111.74</v>
+        <v>113.47</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -761,11 +763,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n">
-        <v>43373</v>
+      <c r="A27" s="2" t="n">
+        <v>43465</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>109.07</v>
+        <v>111.74</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -773,11 +775,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>43281</v>
+      <c r="A28" s="4" t="n">
+        <v>43373</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>106.23</v>
+        <v>109.07</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -785,11 +787,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
-        <v>43190</v>
+      <c r="A29" s="2" t="n">
+        <v>43281</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>104.29</v>
+        <v>106.23</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -797,11 +799,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>43100</v>
+      <c r="A30" s="4" t="n">
+        <v>43190</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>102.57</v>
+        <v>104.29</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -809,11 +811,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n">
-        <v>43008</v>
+      <c r="A31" s="2" t="n">
+        <v>43100</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>101.41</v>
+        <v>102.57</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -821,11 +823,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>42916</v>
+      <c r="A32" s="4" t="n">
+        <v>43008</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>109.66</v>
+        <v>101.41</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -833,11 +835,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n">
-        <v>42825</v>
+      <c r="A33" s="2" t="n">
+        <v>42916</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>107.61</v>
+        <v>109.66</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -845,11 +847,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>42735</v>
+      <c r="A34" s="4" t="n">
+        <v>42825</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>106.37</v>
+        <v>107.61</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -857,11 +859,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n">
-        <v>42643</v>
+      <c r="A35" s="2" t="n">
+        <v>42735</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>105.98</v>
+        <v>106.37</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -869,11 +871,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>42551</v>
+      <c r="A36" s="4" t="n">
+        <v>42643</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>105.54</v>
+        <v>105.98</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -881,11 +883,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>42460</v>
+      <c r="A37" s="2" t="n">
+        <v>42551</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>105.49</v>
+        <v>105.54</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -893,11 +895,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>42369</v>
+      <c r="A38" s="4" t="n">
+        <v>42460</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>105.67</v>
+        <v>105.49</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -905,11 +907,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n">
-        <v>42277</v>
+      <c r="A39" s="2" t="n">
+        <v>42369</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>105.06</v>
+        <v>105.67</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -917,11 +919,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>42185</v>
+      <c r="A40" s="4" t="n">
+        <v>42277</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>104.2</v>
+        <v>105.06</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -929,11 +931,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="n">
-        <v>42094</v>
+      <c r="A41" s="2" t="n">
+        <v>42185</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>102.08</v>
+        <v>104.2</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -941,11 +943,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>42004</v>
+      <c r="A42" s="4" t="n">
+        <v>42094</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>101.13</v>
+        <v>102.08</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -953,11 +955,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="n">
-        <v>41912</v>
+      <c r="A43" s="2" t="n">
+        <v>42004</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>101.85</v>
+        <v>101.13</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -965,11 +967,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>41820</v>
+      <c r="A44" s="4" t="n">
+        <v>41912</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>103.31</v>
+        <v>101.85</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -977,11 +979,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n">
-        <v>41729</v>
+      <c r="A45" s="2" t="n">
+        <v>41820</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>103.39</v>
+        <v>103.31</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -989,11 +991,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>41639</v>
+      <c r="A46" s="4" t="n">
+        <v>41729</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>101.79</v>
+        <v>103.39</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1001,11 +1003,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="n">
-        <v>41547</v>
+      <c r="A47" s="2" t="n">
+        <v>41639</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>99.33</v>
+        <v>101.79</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1013,11 +1015,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>41455</v>
+      <c r="A48" s="4" t="n">
+        <v>41547</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>99.65000000000001</v>
+        <v>99.33</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1025,11 +1027,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="n">
-        <v>41364</v>
+      <c r="A49" s="2" t="n">
+        <v>41455</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>100.59</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1037,11 +1039,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>41274</v>
+      <c r="A50" s="4" t="n">
+        <v>41364</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>100.97</v>
+        <v>100.59</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1049,11 +1051,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="n">
-        <v>41182</v>
+      <c r="A51" s="2" t="n">
+        <v>41274</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>100.42</v>
+        <v>100.97</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1061,11 +1063,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>41090</v>
+      <c r="A52" s="4" t="n">
+        <v>41182</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>105.23</v>
+        <v>100.42</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1073,9 +1075,21 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="3" t="n"/>
+      <c r="A53" s="2" t="n">
+        <v>41090</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>105.23</v>
+      </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="3" t="n"/>
+      <c r="C54">
+        <f>(B54/B66-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/transportation.xlsx
+++ b/data/transportation.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120.12</v>
+        <v>120.26</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -475,23 +475,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>120.12</v>
+      </c>
+      <c r="C3">
+        <f>(B3/B15-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2024-12-31</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B4" t="n">
         <v>117.94</v>
-      </c>
-      <c r="C3">
-        <f>(B3/B15-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>45565</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>124.96</v>
       </c>
       <c r="C4">
         <f>(B4/B16-1)*100</f>
@@ -499,11 +501,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45473</v>
+      <c r="A5" s="4" t="n">
+        <v>45565</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>124.26</v>
+        <v>124.96</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -511,11 +513,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
-        <v>45382</v>
+      <c r="A6" s="2" t="n">
+        <v>45473</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>122.73</v>
+        <v>124.26</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -523,11 +525,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45291</v>
+      <c r="A7" s="4" t="n">
+        <v>45382</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>121.89</v>
+        <v>122.73</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -535,11 +537,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>45199</v>
+      <c r="A8" s="2" t="n">
+        <v>45291</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>121.33</v>
+        <v>121.89</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -547,11 +549,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45107</v>
+      <c r="A9" s="4" t="n">
+        <v>45199</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>120.87</v>
+        <v>121.33</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -559,11 +561,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>45016</v>
+      <c r="A10" s="2" t="n">
+        <v>45107</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>120.61</v>
+        <v>120.87</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -571,11 +573,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>44926</v>
+      <c r="A11" s="4" t="n">
+        <v>45016</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>118.24</v>
+        <v>120.61</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -583,11 +585,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n">
-        <v>44834</v>
+      <c r="A12" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>117.96</v>
+        <v>118.24</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -595,11 +597,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>44742</v>
+      <c r="A13" s="4" t="n">
+        <v>44834</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>117.18</v>
+        <v>117.96</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -607,11 +609,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
-        <v>44651</v>
+      <c r="A14" s="2" t="n">
+        <v>44742</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>113.5</v>
+        <v>117.18</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -619,11 +621,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>44561</v>
+      <c r="A15" s="4" t="n">
+        <v>44651</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>112.41</v>
+        <v>113.5</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -631,11 +633,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
-        <v>44469</v>
+      <c r="A16" s="2" t="n">
+        <v>44561</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>109.1</v>
+        <v>112.41</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -643,11 +645,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>44377</v>
+      <c r="A17" s="4" t="n">
+        <v>44469</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>105.85</v>
+        <v>109.1</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -655,11 +657,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="n">
-        <v>44286</v>
+      <c r="A18" s="2" t="n">
+        <v>44377</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>105.99</v>
+        <v>105.85</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -667,11 +669,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>44196</v>
+      <c r="A19" s="4" t="n">
+        <v>44286</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>104.44</v>
+        <v>105.99</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -679,11 +681,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n">
-        <v>44104</v>
+      <c r="A20" s="2" t="n">
+        <v>44196</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>101.02</v>
+        <v>104.44</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -691,11 +693,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>44012</v>
+      <c r="A21" s="4" t="n">
+        <v>44104</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>89.06999999999999</v>
+        <v>101.02</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -703,11 +705,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="n">
-        <v>43921</v>
+      <c r="A22" s="2" t="n">
+        <v>44012</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>108.38</v>
+        <v>89.06999999999999</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -715,11 +717,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>43830</v>
+      <c r="A23" s="4" t="n">
+        <v>43921</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>114.58</v>
+        <v>108.38</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -727,11 +729,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="n">
-        <v>43738</v>
+      <c r="A24" s="2" t="n">
+        <v>43830</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>113.16</v>
+        <v>114.58</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -739,11 +741,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>43646</v>
+      <c r="A25" s="4" t="n">
+        <v>43738</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>113.85</v>
+        <v>113.16</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -751,11 +753,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="n">
-        <v>43555</v>
+      <c r="A26" s="2" t="n">
+        <v>43646</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>113.47</v>
+        <v>113.85</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -763,11 +765,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>43465</v>
+      <c r="A27" s="4" t="n">
+        <v>43555</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>111.74</v>
+        <v>113.47</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -775,11 +777,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="n">
-        <v>43373</v>
+      <c r="A28" s="2" t="n">
+        <v>43465</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>109.07</v>
+        <v>111.74</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -787,11 +789,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>43281</v>
+      <c r="A29" s="4" t="n">
+        <v>43373</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>106.23</v>
+        <v>109.07</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -799,11 +801,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n">
-        <v>43190</v>
+      <c r="A30" s="2" t="n">
+        <v>43281</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>104.29</v>
+        <v>106.23</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -811,11 +813,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>43100</v>
+      <c r="A31" s="4" t="n">
+        <v>43190</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>102.57</v>
+        <v>104.29</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -823,11 +825,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="n">
-        <v>43008</v>
+      <c r="A32" s="2" t="n">
+        <v>43100</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>101.41</v>
+        <v>102.57</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -835,11 +837,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>42916</v>
+      <c r="A33" s="4" t="n">
+        <v>43008</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>109.66</v>
+        <v>101.41</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -847,11 +849,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n">
-        <v>42825</v>
+      <c r="A34" s="2" t="n">
+        <v>42916</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>107.61</v>
+        <v>109.66</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -859,11 +861,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>42735</v>
+      <c r="A35" s="4" t="n">
+        <v>42825</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>106.37</v>
+        <v>107.61</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -871,11 +873,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="n">
-        <v>42643</v>
+      <c r="A36" s="2" t="n">
+        <v>42735</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>105.98</v>
+        <v>106.37</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -883,11 +885,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>42551</v>
+      <c r="A37" s="4" t="n">
+        <v>42643</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>105.54</v>
+        <v>105.98</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -895,11 +897,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="n">
-        <v>42460</v>
+      <c r="A38" s="2" t="n">
+        <v>42551</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>105.49</v>
+        <v>105.54</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -907,11 +909,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>42369</v>
+      <c r="A39" s="4" t="n">
+        <v>42460</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>105.67</v>
+        <v>105.49</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -919,11 +921,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="n">
-        <v>42277</v>
+      <c r="A40" s="2" t="n">
+        <v>42369</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>105.06</v>
+        <v>105.67</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -931,11 +933,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>42185</v>
+      <c r="A41" s="4" t="n">
+        <v>42277</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>104.2</v>
+        <v>105.06</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -943,11 +945,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="n">
-        <v>42094</v>
+      <c r="A42" s="2" t="n">
+        <v>42185</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>102.08</v>
+        <v>104.2</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -955,11 +957,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>42004</v>
+      <c r="A43" s="4" t="n">
+        <v>42094</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>101.13</v>
+        <v>102.08</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -967,11 +969,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n">
-        <v>41912</v>
+      <c r="A44" s="2" t="n">
+        <v>42004</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>101.85</v>
+        <v>101.13</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -979,11 +981,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>41820</v>
+      <c r="A45" s="4" t="n">
+        <v>41912</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>103.31</v>
+        <v>101.85</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -991,11 +993,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="n">
-        <v>41729</v>
+      <c r="A46" s="2" t="n">
+        <v>41820</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>103.39</v>
+        <v>103.31</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1003,11 +1005,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>41639</v>
+      <c r="A47" s="4" t="n">
+        <v>41729</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>101.79</v>
+        <v>103.39</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1015,11 +1017,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="n">
-        <v>41547</v>
+      <c r="A48" s="2" t="n">
+        <v>41639</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>99.33</v>
+        <v>101.79</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1027,11 +1029,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>41455</v>
+      <c r="A49" s="4" t="n">
+        <v>41547</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>99.65000000000001</v>
+        <v>99.33</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1039,11 +1041,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="n">
-        <v>41364</v>
+      <c r="A50" s="2" t="n">
+        <v>41455</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>100.59</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1051,11 +1053,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>41274</v>
+      <c r="A51" s="4" t="n">
+        <v>41364</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>100.97</v>
+        <v>100.59</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1063,11 +1065,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n">
-        <v>41182</v>
+      <c r="A52" s="2" t="n">
+        <v>41274</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>100.42</v>
+        <v>100.97</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1075,11 +1077,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>41090</v>
+      <c r="A53" s="4" t="n">
+        <v>41182</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>105.23</v>
+        <v>100.42</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1087,9 +1089,21 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" s="3" t="n"/>
+      <c r="A54" s="2" t="n">
+        <v>41090</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>105.23</v>
+      </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="3" t="n"/>
+      <c r="C55">
+        <f>(B55/B67-1)*100</f>
         <v/>
       </c>
     </row>

--- a/data/transportation.xlsx
+++ b/data/transportation.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,11 +461,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120.26</v>
+        <v>120.94</v>
       </c>
       <c r="C2">
         <f>(B2/B14-1)*100</f>
@@ -475,11 +475,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.12</v>
+        <v>120.26</v>
       </c>
       <c r="C3">
         <f>(B3/B15-1)*100</f>
@@ -489,23 +489,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>120.12</v>
+      </c>
+      <c r="C4">
+        <f>(B4/B16-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2024-12-31</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>117.94</v>
-      </c>
-      <c r="C4">
-        <f>(B4/B16-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
-        <v>45565</v>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>124.96</v>
       </c>
       <c r="C5">
         <f>(B5/B17-1)*100</f>
@@ -513,11 +515,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45473</v>
+      <c r="A6" s="4" t="n">
+        <v>45565</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>124.26</v>
+        <v>124.96</v>
       </c>
       <c r="C6">
         <f>(B6/B18-1)*100</f>
@@ -525,11 +527,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
-        <v>45382</v>
+      <c r="A7" s="2" t="n">
+        <v>45473</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>122.73</v>
+        <v>124.26</v>
       </c>
       <c r="C7">
         <f>(B7/B19-1)*100</f>
@@ -537,11 +539,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45291</v>
+      <c r="A8" s="4" t="n">
+        <v>45382</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>121.89</v>
+        <v>122.73</v>
       </c>
       <c r="C8">
         <f>(B8/B20-1)*100</f>
@@ -549,11 +551,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>45199</v>
+      <c r="A9" s="2" t="n">
+        <v>45291</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>121.33</v>
+        <v>121.89</v>
       </c>
       <c r="C9">
         <f>(B9/B21-1)*100</f>
@@ -561,11 +563,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45107</v>
+      <c r="A10" s="4" t="n">
+        <v>45199</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>120.87</v>
+        <v>121.33</v>
       </c>
       <c r="C10">
         <f>(B10/B22-1)*100</f>
@@ -573,11 +575,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
-        <v>45016</v>
+      <c r="A11" s="2" t="n">
+        <v>45107</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>120.61</v>
+        <v>120.87</v>
       </c>
       <c r="C11">
         <f>(B11/B23-1)*100</f>
@@ -585,11 +587,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>44926</v>
+      <c r="A12" s="4" t="n">
+        <v>45016</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>118.24</v>
+        <v>120.61</v>
       </c>
       <c r="C12">
         <f>(B12/B24-1)*100</f>
@@ -597,11 +599,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
-        <v>44834</v>
+      <c r="A13" s="2" t="n">
+        <v>44926</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>117.96</v>
+        <v>118.24</v>
       </c>
       <c r="C13">
         <f>(B13/B25-1)*100</f>
@@ -609,11 +611,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>44742</v>
+      <c r="A14" s="4" t="n">
+        <v>44834</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>117.18</v>
+        <v>117.96</v>
       </c>
       <c r="C14">
         <f>(B14/B26-1)*100</f>
@@ -621,11 +623,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
-        <v>44651</v>
+      <c r="A15" s="2" t="n">
+        <v>44742</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>113.5</v>
+        <v>117.18</v>
       </c>
       <c r="C15">
         <f>(B15/B27-1)*100</f>
@@ -633,11 +635,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>44561</v>
+      <c r="A16" s="4" t="n">
+        <v>44651</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>112.41</v>
+        <v>113.5</v>
       </c>
       <c r="C16">
         <f>(B16/B28-1)*100</f>
@@ -645,11 +647,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
-        <v>44469</v>
+      <c r="A17" s="2" t="n">
+        <v>44561</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>109.1</v>
+        <v>112.41</v>
       </c>
       <c r="C17">
         <f>(B17/B29-1)*100</f>
@@ -657,11 +659,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>44377</v>
+      <c r="A18" s="4" t="n">
+        <v>44469</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>105.85</v>
+        <v>109.1</v>
       </c>
       <c r="C18">
         <f>(B18/B30-1)*100</f>
@@ -669,11 +671,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="n">
-        <v>44286</v>
+      <c r="A19" s="2" t="n">
+        <v>44377</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>105.99</v>
+        <v>105.85</v>
       </c>
       <c r="C19">
         <f>(B19/B31-1)*100</f>
@@ -681,11 +683,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>44196</v>
+      <c r="A20" s="4" t="n">
+        <v>44286</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>104.44</v>
+        <v>105.99</v>
       </c>
       <c r="C20">
         <f>(B20/B32-1)*100</f>
@@ -693,11 +695,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="n">
-        <v>44104</v>
+      <c r="A21" s="2" t="n">
+        <v>44196</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>101.02</v>
+        <v>104.44</v>
       </c>
       <c r="C21">
         <f>(B21/B33-1)*100</f>
@@ -705,11 +707,11 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>44012</v>
+      <c r="A22" s="4" t="n">
+        <v>44104</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>89.06999999999999</v>
+        <v>101.02</v>
       </c>
       <c r="C22">
         <f>(B22/B34-1)*100</f>
@@ -717,11 +719,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n">
-        <v>43921</v>
+      <c r="A23" s="2" t="n">
+        <v>44012</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>108.38</v>
+        <v>89.06999999999999</v>
       </c>
       <c r="C23">
         <f>(B23/B35-1)*100</f>
@@ -729,11 +731,11 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>43830</v>
+      <c r="A24" s="4" t="n">
+        <v>43921</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>114.58</v>
+        <v>108.38</v>
       </c>
       <c r="C24">
         <f>(B24/B36-1)*100</f>
@@ -741,11 +743,11 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="n">
-        <v>43738</v>
+      <c r="A25" s="2" t="n">
+        <v>43830</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>113.16</v>
+        <v>114.58</v>
       </c>
       <c r="C25">
         <f>(B25/B37-1)*100</f>
@@ -753,11 +755,11 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>43646</v>
+      <c r="A26" s="4" t="n">
+        <v>43738</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>113.85</v>
+        <v>113.16</v>
       </c>
       <c r="C26">
         <f>(B26/B38-1)*100</f>
@@ -765,11 +767,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="n">
-        <v>43555</v>
+      <c r="A27" s="2" t="n">
+        <v>43646</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>113.47</v>
+        <v>113.85</v>
       </c>
       <c r="C27">
         <f>(B27/B39-1)*100</f>
@@ -777,11 +779,11 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>43465</v>
+      <c r="A28" s="4" t="n">
+        <v>43555</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>111.74</v>
+        <v>113.47</v>
       </c>
       <c r="C28">
         <f>(B28/B40-1)*100</f>
@@ -789,11 +791,11 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="n">
-        <v>43373</v>
+      <c r="A29" s="2" t="n">
+        <v>43465</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>109.07</v>
+        <v>111.74</v>
       </c>
       <c r="C29">
         <f>(B29/B41-1)*100</f>
@@ -801,11 +803,11 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>43281</v>
+      <c r="A30" s="4" t="n">
+        <v>43373</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>106.23</v>
+        <v>109.07</v>
       </c>
       <c r="C30">
         <f>(B30/B42-1)*100</f>
@@ -813,11 +815,11 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="n">
-        <v>43190</v>
+      <c r="A31" s="2" t="n">
+        <v>43281</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>104.29</v>
+        <v>106.23</v>
       </c>
       <c r="C31">
         <f>(B31/B43-1)*100</f>
@@ -825,11 +827,11 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>43100</v>
+      <c r="A32" s="4" t="n">
+        <v>43190</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>102.57</v>
+        <v>104.29</v>
       </c>
       <c r="C32">
         <f>(B32/B44-1)*100</f>
@@ -837,11 +839,11 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="n">
-        <v>43008</v>
+      <c r="A33" s="2" t="n">
+        <v>43100</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>101.41</v>
+        <v>102.57</v>
       </c>
       <c r="C33">
         <f>(B33/B45-1)*100</f>
@@ -849,11 +851,11 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>42916</v>
+      <c r="A34" s="4" t="n">
+        <v>43008</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>109.66</v>
+        <v>101.41</v>
       </c>
       <c r="C34">
         <f>(B34/B46-1)*100</f>
@@ -861,11 +863,11 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="n">
-        <v>42825</v>
+      <c r="A35" s="2" t="n">
+        <v>42916</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>107.61</v>
+        <v>109.66</v>
       </c>
       <c r="C35">
         <f>(B35/B47-1)*100</f>
@@ -873,11 +875,11 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>42735</v>
+      <c r="A36" s="4" t="n">
+        <v>42825</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>106.37</v>
+        <v>107.61</v>
       </c>
       <c r="C36">
         <f>(B36/B48-1)*100</f>
@@ -885,11 +887,11 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>42643</v>
+      <c r="A37" s="2" t="n">
+        <v>42735</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>105.98</v>
+        <v>106.37</v>
       </c>
       <c r="C37">
         <f>(B37/B49-1)*100</f>
@@ -897,11 +899,11 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>42551</v>
+      <c r="A38" s="4" t="n">
+        <v>42643</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>105.54</v>
+        <v>105.98</v>
       </c>
       <c r="C38">
         <f>(B38/B50-1)*100</f>
@@ -909,11 +911,11 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="n">
-        <v>42460</v>
+      <c r="A39" s="2" t="n">
+        <v>42551</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>105.49</v>
+        <v>105.54</v>
       </c>
       <c r="C39">
         <f>(B39/B51-1)*100</f>
@@ -921,11 +923,11 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>42369</v>
+      <c r="A40" s="4" t="n">
+        <v>42460</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>105.67</v>
+        <v>105.49</v>
       </c>
       <c r="C40">
         <f>(B40/B52-1)*100</f>
@@ -933,11 +935,11 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="n">
-        <v>42277</v>
+      <c r="A41" s="2" t="n">
+        <v>42369</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>105.06</v>
+        <v>105.67</v>
       </c>
       <c r="C41">
         <f>(B41/B53-1)*100</f>
@@ -945,11 +947,11 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>42185</v>
+      <c r="A42" s="4" t="n">
+        <v>42277</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>104.2</v>
+        <v>105.06</v>
       </c>
       <c r="C42">
         <f>(B42/B54-1)*100</f>
@@ -957,11 +959,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="n">
-        <v>42094</v>
+      <c r="A43" s="2" t="n">
+        <v>42185</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>102.08</v>
+        <v>104.2</v>
       </c>
       <c r="C43">
         <f>(B43/B55-1)*100</f>
@@ -969,11 +971,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42004</v>
+      <c r="A44" s="4" t="n">
+        <v>42094</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>101.13</v>
+        <v>102.08</v>
       </c>
       <c r="C44">
         <f>(B44/B56-1)*100</f>
@@ -981,11 +983,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n">
-        <v>41912</v>
+      <c r="A45" s="2" t="n">
+        <v>42004</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>101.85</v>
+        <v>101.13</v>
       </c>
       <c r="C45">
         <f>(B45/B57-1)*100</f>
@@ -993,11 +995,11 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>41820</v>
+      <c r="A46" s="4" t="n">
+        <v>41912</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>103.31</v>
+        <v>101.85</v>
       </c>
       <c r="C46">
         <f>(B46/B58-1)*100</f>
@@ -1005,11 +1007,11 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="n">
-        <v>41729</v>
+      <c r="A47" s="2" t="n">
+        <v>41820</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>103.39</v>
+        <v>103.31</v>
       </c>
       <c r="C47">
         <f>(B47/B59-1)*100</f>
@@ -1017,11 +1019,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>41639</v>
+      <c r="A48" s="4" t="n">
+        <v>41729</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>101.79</v>
+        <v>103.39</v>
       </c>
       <c r="C48">
         <f>(B48/B60-1)*100</f>
@@ -1029,11 +1031,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="n">
-        <v>41547</v>
+      <c r="A49" s="2" t="n">
+        <v>41639</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>99.33</v>
+        <v>101.79</v>
       </c>
       <c r="C49">
         <f>(B49/B61-1)*100</f>
@@ -1041,11 +1043,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>41455</v>
+      <c r="A50" s="4" t="n">
+        <v>41547</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>99.65000000000001</v>
+        <v>99.33</v>
       </c>
       <c r="C50">
         <f>(B50/B62-1)*100</f>
@@ -1053,11 +1055,11 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="n">
-        <v>41364</v>
+      <c r="A51" s="2" t="n">
+        <v>41455</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>100.59</v>
+        <v>99.65000000000001</v>
       </c>
       <c r="C51">
         <f>(B51/B63-1)*100</f>
@@ -1065,11 +1067,11 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>41274</v>
+      <c r="A52" s="4" t="n">
+        <v>41364</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>100.97</v>
+        <v>100.59</v>
       </c>
       <c r="C52">
         <f>(B52/B64-1)*100</f>
@@ -1077,11 +1079,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="n">
-        <v>41182</v>
+      <c r="A53" s="2" t="n">
+        <v>41274</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>100.42</v>
+        <v>100.97</v>
       </c>
       <c r="C53">
         <f>(B53/B65-1)*100</f>
@@ -1089,11 +1091,11 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>41090</v>
+      <c r="A54" s="4" t="n">
+        <v>41182</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>105.23</v>
+        <v>100.42</v>
       </c>
       <c r="C54">
         <f>(B54/B66-1)*100</f>
@@ -1101,9 +1103,21 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" s="3" t="n"/>
+      <c r="A55" s="2" t="n">
+        <v>41090</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>105.23</v>
+      </c>
       <c r="C55">
         <f>(B55/B67-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="3" t="n"/>
+      <c r="C56">
+        <f>(B56/B68-1)*100</f>
         <v/>
       </c>
     </row>
